--- a/IDA2015/PreliminaryExperiments/MixtureOfCLGConceptDrift.xlsx
+++ b/IDA2015/PreliminaryExperiments/MixtureOfCLGConceptDrift.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="826" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="826" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="W100-Fading" sheetId="5" r:id="rId1"/>
     <sheet name="W100" sheetId="1" r:id="rId2"/>
     <sheet name="W10" sheetId="3" r:id="rId3"/>
     <sheet name="W10-Fading" sheetId="4" r:id="rId4"/>
-    <sheet name="W10Chart_CLGConceptDrift" sheetId="11" r:id="rId5"/>
-    <sheet name="W10-CLGConceptDrift" sheetId="10" r:id="rId6"/>
+    <sheet name="W10Chart_CLGHiddenContinuous" sheetId="11" r:id="rId5"/>
+    <sheet name="W10-CLGHidddenContinuous" sheetId="10" r:id="rId6"/>
     <sheet name="Chart-w10-clgHiddenMultinonmial" sheetId="13" r:id="rId7"/>
     <sheet name="W10-clghiddenMultinomial" sheetId="12" r:id="rId8"/>
   </sheets>
@@ -1174,11 +1174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138493720"/>
-        <c:axId val="-2138490728"/>
+        <c:axId val="-2143990744"/>
+        <c:axId val="-2143988824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138493720"/>
+        <c:axId val="-2143990744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1188,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138490728"/>
+        <c:crossAx val="-2143988824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138490728"/>
+        <c:axId val="-2143988824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138493720"/>
+        <c:crossAx val="-2143990744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6197,11 +6197,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138644936"/>
-        <c:axId val="2130204232"/>
+        <c:axId val="-2146066296"/>
+        <c:axId val="-2146069432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138644936"/>
+        <c:axId val="-2146066296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6211,12 +6211,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130204232"/>
+        <c:crossAx val="-2146069432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130204232"/>
+        <c:axId val="-2146069432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,7 +6227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138644936"/>
+        <c:crossAx val="-2146066296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6269,7 +6269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'W10-CLGConceptDrift'!$B$1</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6283,7 +6283,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$A$2:$A$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -6892,7 +6892,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$B$2:$B$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$B$2:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -7506,7 +7506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'W10-CLGConceptDrift'!$C$1</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7520,7 +7520,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$A$2:$A$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -8129,7 +8129,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$C$2:$C$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$C$2:$C$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -8743,7 +8743,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'W10-CLGConceptDrift'!$D$1</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8757,7 +8757,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$A$2:$A$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -9366,7 +9366,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'W10-CLGConceptDrift'!$D$2:$D$201</c:f>
+              <c:f>'W10-CLGHidddenContinuous'!$D$2:$D$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
@@ -9983,11 +9983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128930024"/>
-        <c:axId val="-2132600712"/>
+        <c:axId val="-2142678408"/>
+        <c:axId val="-2142675416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128930024"/>
+        <c:axId val="-2142678408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,12 +9997,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132600712"/>
+        <c:crossAx val="-2142675416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132600712"/>
+        <c:axId val="-2142675416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10013,7 +10013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128930024"/>
+        <c:crossAx val="-2142678408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13769,11 +13769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128027720"/>
-        <c:axId val="-2124939448"/>
+        <c:axId val="-2144029640"/>
+        <c:axId val="-2144032632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128027720"/>
+        <c:axId val="-2144029640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13783,12 +13783,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124939448"/>
+        <c:crossAx val="-2144032632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124939448"/>
+        <c:axId val="-2144032632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13799,14 +13799,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128027720"/>
+        <c:crossAx val="-2144029640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -13842,7 +13841,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -21067,7 +21066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
